--- a/output_data/charts/facilities-PrairieTownshipFranklin-0700000US390496457099999.xlsx
+++ b/output_data/charts/facilities-PrairieTownshipFranklin-0700000US390496457099999.xlsx
@@ -895,13 +895,13 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>24</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
